--- a/Forms/ReportTemplates/Phlebotomy.xlsx
+++ b/Forms/ReportTemplates/Phlebotomy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\Report Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Desktop\i2emr\Forms\ReportTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E1A2E40-1793-437C-92F1-D46F062CEB92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D05B7F-D984-4ED8-B8B2-20EF843933E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{75CF79CF-7F7D-4998-9773-FADB7D42A4C6}"/>
   </bookViews>
@@ -408,7 +408,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
